--- a/STM32/variants/ARMFLY_X2_F103VE/DOC/ARMFLY STM32-X2.xlsx
+++ b/STM32/variants/ARMFLY_X2_F103VE/DOC/ARMFLY STM32-X2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="15480" windowHeight="9840"/>
@@ -1569,19 +1569,52 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>25Q64_CS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3_ETRUSART4_RX/SDIO_CMD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD_BPWM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD_TIRQ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARMFLY x2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需检查JMP跳线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需检查JMP跳线，程序中需要 REMAP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>24C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>02</t>
+      <t>24C02</t>
     </r>
     <r>
       <rPr>
@@ -1591,59 +1624,15 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">    IIC设备地址     A1A0  000  1010000(0x50)</t>
+      <t xml:space="preserve">    IIC设备地址     A2A1A0  000  1010000(0x50)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>25Q64_CS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM3_ETRUSART4_RX/SDIO_CMD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LCD_BPWM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LCD_TIRQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARMFLY x2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>J4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>J5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需检查JMP跳线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需检查JMP跳线，程序中需要 REMAP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -2149,6 +2138,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2181,18 +2182,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2210,7 +2199,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2284,6 +2273,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2318,6 +2308,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2493,14 +2484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B54" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2525,36 +2516,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" thickTop="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="53" t="s">
-        <v>355</v>
-      </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="47" t="s">
+      <c r="E1" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="48"/>
+      <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>97</v>
@@ -2585,7 +2576,7 @@
       <c r="D3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="46" t="s">
         <v>336</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -2816,7 +2807,7 @@
         <v>98</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>103</v>
@@ -2964,7 +2955,7 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>103</v>
@@ -2988,7 +2979,7 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F17" s="26" t="s">
         <v>103</v>
@@ -3362,7 +3353,7 @@
         <v>103</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="4" t="s">
@@ -3636,14 +3627,14 @@
       <c r="D41" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="45" t="s">
         <v>343</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>103</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="4" t="s">
@@ -3666,14 +3657,14 @@
       <c r="D42" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E42" s="56" t="s">
+      <c r="E42" s="45" t="s">
         <v>343</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>103</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="4" t="s">
@@ -3956,7 +3947,7 @@
         <v>74</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="11" t="s">
@@ -4092,7 +4083,7 @@
         <v>312</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>103</v>
@@ -5263,28 +5254,28 @@
     </row>
     <row r="86" spans="1:256">
       <c r="B86" s="41"/>
-      <c r="C86" s="58" t="s">
-        <v>359</v>
+      <c r="C86" s="47" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:256">
       <c r="B87" s="39"/>
-      <c r="C87" s="59" t="s">
+      <c r="C87" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="F87" s="44"/>
+    </row>
+    <row r="88" spans="1:256">
+      <c r="B88" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="F87" s="44"/>
-    </row>
-    <row r="88" spans="1:256">
-      <c r="B88" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
     </row>
     <row r="89" spans="1:256">
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="8">
